--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/15/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.206</v>
+        <v>-21.986</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.836</v>
+        <v>-21.759</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.574</v>
+        <v>-20.269</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.342</v>
+        <v>-12.711</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.286</v>
+        <v>-20.246</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.534</v>
+        <v>-12.218</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.666</v>
+        <v>-21.855</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.856</v>
+        <v>-22.066</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.286</v>
+        <v>-13.179</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.042</v>
+        <v>-21.311</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.682</v>
+        <v>-12.732</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.534</v>
+        <v>-12.921</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.81</v>
+        <v>-11.205</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.216</v>
+        <v>-13.367</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.284</v>
+        <v>-11.655</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.798</v>
+        <v>-21.836</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-12.524</v>
+        <v>-12.789</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.712</v>
+        <v>-13.061</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.214</v>
+        <v>-22.17</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.068</v>
+        <v>-22.406</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.57</v>
+        <v>-21.519</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.348</v>
+        <v>-11.492</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.234</v>
+        <v>-21.008</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.162</v>
+        <v>-21.982</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.82</v>
+        <v>-13.9</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.48</v>
+        <v>-12.907</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.692</v>
+        <v>-13.299</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.722</v>
+        <v>-20.744</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.398</v>
+        <v>-21.508</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.322</v>
+        <v>-12.721</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-22.018</v>
+        <v>-22.052</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
